--- a/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
+++ b/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
+++ b/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
+++ b/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
+++ b/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
+++ b/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
+++ b/refs/heads/master/StructureDefinition-MINSALPrestadorProfesional.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
